--- a/Digikey/Processors.xlsx
+++ b/Digikey/Processors.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Deiss\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26355" windowHeight="11715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35940" windowHeight="20240" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="ATMEGA2560" sheetId="1" r:id="rId1"/>
-    <sheet name="ATMEGA128RFA1" sheetId="2" r:id="rId2"/>
-    <sheet name="ATMEGA328" sheetId="3" r:id="rId3"/>
-    <sheet name="ATTiny" sheetId="4" r:id="rId4"/>
+    <sheet name="ATMEGA2560s" sheetId="1" r:id="rId1"/>
+    <sheet name="ATMEGA128RFs" sheetId="2" r:id="rId2"/>
+    <sheet name="ATMEGA328s" sheetId="3" r:id="rId3"/>
+    <sheet name="ATTinys" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="306">
   <si>
     <t>Datasheets</t>
   </si>
@@ -895,13 +895,58 @@
   </si>
   <si>
     <t>SOIC127P798X216-8L34_HS</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>SMD-QFN64+1</t>
+  </si>
+  <si>
+    <t>TH-DIP28</t>
+  </si>
+  <si>
+    <t>SMD-32TQFP</t>
+  </si>
+  <si>
+    <t>SMD-32MLF</t>
+  </si>
+  <si>
+    <t>SMD-QFN64+2</t>
+  </si>
+  <si>
+    <t>SMD-QFN64+3</t>
+  </si>
+  <si>
+    <t>SMD-QFN64+4</t>
+  </si>
+  <si>
+    <t>SMD-QFN64+5</t>
+  </si>
+  <si>
+    <t>SMD-TQFP100+2</t>
+  </si>
+  <si>
+    <t>TH-DIP8</t>
+  </si>
+  <si>
+    <t>SMD-SOIC8-JEDEC</t>
+  </si>
+  <si>
+    <t>SMD-SOIC8-EIAJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1077,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1334,7 +1395,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1377,11 +1438,79 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="110">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1410,11 +1539,79 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1436,6 +1633,172 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:AF5" totalsRowShown="0">
+  <autoFilter ref="A1:AF5"/>
+  <tableColumns count="32">
+    <tableColumn id="1" name="Datasheets"/>
+    <tableColumn id="2" name="Image"/>
+    <tableColumn id="3" name="Digi-Key Part Number"/>
+    <tableColumn id="4" name="Manufacturer Part Number"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="Quantity Available"/>
+    <tableColumn id="8" name="Factory Stock"/>
+    <tableColumn id="9" name="Unit Price (USD)"/>
+    <tableColumn id="10" name="@ qty"/>
+    <tableColumn id="11" name="Minimum Quantity"/>
+    <tableColumn id="12" name="Packaging"/>
+    <tableColumn id="13" name="Series"/>
+    <tableColumn id="14" name="Core Processor"/>
+    <tableColumn id="15" name="Core Size"/>
+    <tableColumn id="16" name="Speed"/>
+    <tableColumn id="17" name="Connectivity"/>
+    <tableColumn id="18" name="Peripherals"/>
+    <tableColumn id="19" name="Number of I/O"/>
+    <tableColumn id="20" name="Program Memory Size"/>
+    <tableColumn id="21" name="Program Memory Type"/>
+    <tableColumn id="22" name="EEPROM Size"/>
+    <tableColumn id="23" name="RAM Size"/>
+    <tableColumn id="24" name="Voltage - Supply (Vcc/Vdd)"/>
+    <tableColumn id="25" name="Data Converters"/>
+    <tableColumn id="26" name="Oscillator Type"/>
+    <tableColumn id="27" name="Operating Temperature"/>
+    <tableColumn id="28" name="Package / Case"/>
+    <tableColumn id="29" name="Supplier Device Package"/>
+    <tableColumn id="30" name="Stock"/>
+    <tableColumn id="31" name="Package"/>
+    <tableColumn id="32" name="Device"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AE6" totalsRowShown="0">
+  <autoFilter ref="A1:AE6"/>
+  <tableColumns count="31">
+    <tableColumn id="1" name="Datasheets"/>
+    <tableColumn id="2" name="Image"/>
+    <tableColumn id="3" name="Digi-Key Part Number"/>
+    <tableColumn id="4" name="Manufacturer Part Number"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="Quantity Available"/>
+    <tableColumn id="8" name="Factory Stock"/>
+    <tableColumn id="9" name="Unit Price (USD)"/>
+    <tableColumn id="10" name="@ qty"/>
+    <tableColumn id="11" name="Minimum Quantity"/>
+    <tableColumn id="12" name="Packaging"/>
+    <tableColumn id="13" name="Series"/>
+    <tableColumn id="14" name="Frequency"/>
+    <tableColumn id="15" name="Data Rate (Max)"/>
+    <tableColumn id="16" name="Modulation or Protocol"/>
+    <tableColumn id="17" name="Applications"/>
+    <tableColumn id="18" name="Power - Output"/>
+    <tableColumn id="19" name="Sensitivity"/>
+    <tableColumn id="20" name="Voltage - Supply"/>
+    <tableColumn id="21" name="Current - Receiving"/>
+    <tableColumn id="22" name="Current - Transmitting"/>
+    <tableColumn id="23" name="Data Interface"/>
+    <tableColumn id="24" name="Memory Size"/>
+    <tableColumn id="25" name="Antenna Connector"/>
+    <tableColumn id="26" name="Operating Temperature"/>
+    <tableColumn id="27" name="Package / Case"/>
+    <tableColumn id="28" name="Column1"/>
+    <tableColumn id="29" name="Stock"/>
+    <tableColumn id="30" name="Package"/>
+    <tableColumn id="31" name="Device"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AF8" totalsRowShown="0">
+  <autoFilter ref="A1:AF8"/>
+  <tableColumns count="32">
+    <tableColumn id="1" name="Datasheets"/>
+    <tableColumn id="2" name="Image"/>
+    <tableColumn id="3" name="Digi-Key Part Number"/>
+    <tableColumn id="4" name="Manufacturer Part Number"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="Quantity Available"/>
+    <tableColumn id="8" name="Factory Stock"/>
+    <tableColumn id="9" name="Unit Price (USD)"/>
+    <tableColumn id="10" name="@ qty"/>
+    <tableColumn id="11" name="Minimum Quantity"/>
+    <tableColumn id="12" name="Packaging"/>
+    <tableColumn id="13" name="Series"/>
+    <tableColumn id="14" name="Core Processor"/>
+    <tableColumn id="15" name="Core Size"/>
+    <tableColumn id="16" name="Speed"/>
+    <tableColumn id="17" name="Connectivity"/>
+    <tableColumn id="18" name="Peripherals"/>
+    <tableColumn id="19" name="Number of I/O"/>
+    <tableColumn id="20" name="Program Memory Size"/>
+    <tableColumn id="21" name="Program Memory Type"/>
+    <tableColumn id="22" name="EEPROM Size"/>
+    <tableColumn id="23" name="RAM Size"/>
+    <tableColumn id="24" name="Voltage - Supply (Vcc/Vdd)"/>
+    <tableColumn id="25" name="Data Converters"/>
+    <tableColumn id="26" name="Oscillator Type"/>
+    <tableColumn id="27" name="Operating Temperature"/>
+    <tableColumn id="28" name="Package / Case"/>
+    <tableColumn id="29" name="Supplier Device Package"/>
+    <tableColumn id="30" name="Stock"/>
+    <tableColumn id="31" name="Package"/>
+    <tableColumn id="32" name="Device"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF58" totalsRowShown="0">
+  <autoFilter ref="A1:AF58"/>
+  <sortState ref="A2:AF58">
+    <sortCondition descending="1" ref="I1:I58"/>
+  </sortState>
+  <tableColumns count="32">
+    <tableColumn id="1" name="Datasheets"/>
+    <tableColumn id="2" name="Image"/>
+    <tableColumn id="3" name="Digi-Key Part Number"/>
+    <tableColumn id="4" name="Manufacturer Part Number"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="Quantity Available"/>
+    <tableColumn id="8" name="Factory Stock"/>
+    <tableColumn id="9" name="Unit Price (USD)"/>
+    <tableColumn id="10" name="@ qty"/>
+    <tableColumn id="11" name="Minimum Quantity"/>
+    <tableColumn id="12" name="Packaging"/>
+    <tableColumn id="13" name="Series"/>
+    <tableColumn id="14" name="Core Processor"/>
+    <tableColumn id="15" name="Core Size"/>
+    <tableColumn id="16" name="Speed"/>
+    <tableColumn id="17" name="Connectivity"/>
+    <tableColumn id="18" name="Peripherals"/>
+    <tableColumn id="19" name="Number of I/O"/>
+    <tableColumn id="20" name="Program Memory Size"/>
+    <tableColumn id="21" name="Program Memory Type"/>
+    <tableColumn id="22" name="EEPROM Size"/>
+    <tableColumn id="23" name="RAM Size"/>
+    <tableColumn id="24" name="Voltage - Supply (Vcc/Vdd)"/>
+    <tableColumn id="25" name="Data Converters"/>
+    <tableColumn id="26" name="Oscillator Type"/>
+    <tableColumn id="27" name="Operating Temperature"/>
+    <tableColumn id="28" name="Package / Case"/>
+    <tableColumn id="29" name="Supplier Device Package"/>
+    <tableColumn id="30" name="Stock"/>
+    <tableColumn id="31" name="Package"/>
+    <tableColumn id="32" name="Device"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1481,7 +1844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1516,7 +1879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1693,7 +2056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1701,20 +2064,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="28" max="28" width="16.140625" customWidth="1"/>
-    <col min="29" max="29" width="27.5703125" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" customWidth="1"/>
+    <col min="24" max="24" width="23.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" customWidth="1"/>
+    <col min="26" max="26" width="14.83203125" customWidth="1"/>
+    <col min="27" max="27" width="21.5" customWidth="1"/>
+    <col min="28" max="28" width="16.1640625" customWidth="1"/>
+    <col min="29" max="29" width="27.5" customWidth="1"/>
+    <col min="30" max="30" width="19" customWidth="1"/>
+    <col min="31" max="31" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1803,10 +2190,16 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE1" t="s">
         <v>61</v>
       </c>
+      <c r="AF1" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1895,10 +2288,16 @@
         <v>51</v>
       </c>
       <c r="AD2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE2" t="s">
         <v>62</v>
       </c>
+      <c r="AF2" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1987,10 +2386,16 @@
         <v>51</v>
       </c>
       <c r="AD3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE3" t="s">
         <v>62</v>
       </c>
+      <c r="AF3" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2078,11 +2483,14 @@
       <c r="AC4" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>62</v>
       </c>
+      <c r="AF4" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2170,29 +2578,46 @@
       <c r="AC5" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>62</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="28" max="28" width="10" customWidth="1"/>
+    <col min="1" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="23" width="11.33203125" customWidth="1"/>
+    <col min="24" max="24" width="39.83203125" customWidth="1"/>
+    <col min="25" max="31" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2274,11 +2699,20 @@
       <c r="AA1" t="s">
         <v>27</v>
       </c>
+      <c r="AB1" t="s">
+        <v>293</v>
+      </c>
       <c r="AC1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD1" t="s">
         <v>61</v>
       </c>
+      <c r="AE1" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2361,10 +2795,16 @@
         <v>92</v>
       </c>
       <c r="AC2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD2" t="s">
         <v>108</v>
       </c>
+      <c r="AE2" t="s">
+        <v>294</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2446,11 +2886,14 @@
       <c r="AA3" t="s">
         <v>92</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>108</v>
       </c>
+      <c r="AE3" t="s">
+        <v>298</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2532,11 +2975,14 @@
       <c r="AA4" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>108</v>
       </c>
+      <c r="AE4" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -2618,11 +3064,14 @@
       <c r="AA5" t="s">
         <v>92</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>108</v>
       </c>
+      <c r="AE5" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -2704,30 +3153,66 @@
       <c r="AA6" t="s">
         <v>92</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>108</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="29" max="29" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" customWidth="1"/>
+    <col min="24" max="24" width="23.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" customWidth="1"/>
+    <col min="26" max="26" width="14.83203125" customWidth="1"/>
+    <col min="27" max="27" width="21.5" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" customWidth="1"/>
+    <col min="29" max="30" width="26.33203125" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2816,10 +3301,16 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE1" t="s">
         <v>61</v>
       </c>
+      <c r="AF1" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -2908,10 +3399,16 @@
         <v>121</v>
       </c>
       <c r="AD2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE2" t="s">
         <v>199</v>
       </c>
+      <c r="AF2" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -2999,11 +3496,14 @@
       <c r="AC3" t="s">
         <v>121</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>199</v>
       </c>
+      <c r="AF3" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -3092,10 +3592,16 @@
         <v>131</v>
       </c>
       <c r="AD4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE4" t="s">
         <v>201</v>
       </c>
+      <c r="AF4" t="s">
+        <v>295</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -3183,11 +3689,14 @@
       <c r="AC5" t="s">
         <v>131</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>201</v>
       </c>
+      <c r="AF5" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -3275,11 +3784,14 @@
       <c r="AC6" t="s">
         <v>121</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>199</v>
       </c>
+      <c r="AF6" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -3367,11 +3879,14 @@
       <c r="AC7" t="s">
         <v>131</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>201</v>
       </c>
+      <c r="AF7" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -3459,31 +3974,67 @@
       <c r="AC8" t="s">
         <v>121</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>199</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" customWidth="1"/>
-    <col min="29" max="29" width="9" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" customWidth="1"/>
+    <col min="21" max="21" width="21.1640625" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" customWidth="1"/>
+    <col min="24" max="24" width="23.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" customWidth="1"/>
+    <col min="26" max="26" width="14.83203125" customWidth="1"/>
+    <col min="27" max="27" width="21.5" customWidth="1"/>
+    <col min="28" max="28" width="23.1640625" customWidth="1"/>
+    <col min="29" max="29" width="22" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3572,36 +4123,42 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE1" t="s">
         <v>61</v>
       </c>
+      <c r="AF1" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="G2">
-        <v>18724</v>
+        <v>5311</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.48</v>
+        <v>4.71</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3613,7 +4170,7 @@
         <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N2" t="s">
         <v>37</v>
@@ -3622,7 +4179,7 @@
         <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
         <v>150</v>
@@ -3634,16 +4191,16 @@
         <v>6</v>
       </c>
       <c r="T2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U2" t="s">
         <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="W2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X2" t="s">
         <v>143</v>
@@ -3655,45 +4212,48 @@
         <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="AC2" t="s">
         <v>155</v>
       </c>
-      <c r="AD2" t="s">
-        <v>289</v>
+      <c r="AE2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G3">
-        <v>19259</v>
+        <v>854</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.42</v>
+        <v>4.46</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3705,7 +4265,7 @@
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N3" t="s">
         <v>37</v>
@@ -3714,7 +4274,7 @@
         <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
         <v>150</v>
@@ -3726,16 +4286,16 @@
         <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="U3" t="s">
         <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="W3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="X3" t="s">
         <v>143</v>
@@ -3747,7 +4307,7 @@
         <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AB3" t="s">
         <v>202</v>
@@ -3755,22 +4315,25 @@
       <c r="AC3" t="s">
         <v>155</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>290</v>
       </c>
+      <c r="AF3" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -3779,13 +4342,13 @@
         <v>208</v>
       </c>
       <c r="G4">
-        <v>8367</v>
+        <v>5493</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.62</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3806,7 +4369,7 @@
         <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="Q4" t="s">
         <v>150</v>
@@ -3830,7 +4393,7 @@
         <v>174</v>
       </c>
       <c r="X4" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="s">
         <v>153</v>
@@ -3847,22 +4410,25 @@
       <c r="AC4" t="s">
         <v>155</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>290</v>
       </c>
+      <c r="AF4" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
         <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -3871,13 +4437,13 @@
         <v>208</v>
       </c>
       <c r="G5">
-        <v>4084</v>
+        <v>3410</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.6</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3889,7 +4455,7 @@
         <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N5" t="s">
         <v>37</v>
@@ -3898,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
         <v>150</v>
@@ -3922,7 +4488,7 @@
         <v>174</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y5" t="s">
         <v>153</v>
@@ -3939,22 +4505,25 @@
       <c r="AC5" t="s">
         <v>155</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>290</v>
       </c>
+      <c r="AF5" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
         <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -3963,13 +4532,13 @@
         <v>205</v>
       </c>
       <c r="G6">
-        <v>10691</v>
+        <v>3805</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.66</v>
+        <v>3.5</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3981,7 +4550,7 @@
         <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N6" t="s">
         <v>37</v>
@@ -3990,7 +4559,7 @@
         <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
         <v>150</v>
@@ -4014,7 +4583,7 @@
         <v>158</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y6" t="s">
         <v>153</v>
@@ -4023,7 +4592,7 @@
         <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
         <v>202</v>
@@ -4031,37 +4600,40 @@
       <c r="AC6" t="s">
         <v>155</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>290</v>
       </c>
+      <c r="AF6" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
         <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="G7">
-        <v>11749</v>
+        <v>1692</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.39</v>
+        <v>3.33</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4070,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N7" t="s">
         <v>37</v>
@@ -4082,7 +4654,7 @@
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="Q7" t="s">
         <v>150</v>
@@ -4094,16 +4666,16 @@
         <v>6</v>
       </c>
       <c r="T7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U7" t="s">
         <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X7" t="s">
         <v>143</v>
@@ -4115,7 +4687,7 @@
         <v>48</v>
       </c>
       <c r="AA7" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AB7" t="s">
         <v>202</v>
@@ -4123,37 +4695,40 @@
       <c r="AC7" t="s">
         <v>155</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>290</v>
       </c>
+      <c r="AF7" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
         <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="G8">
-        <v>6356</v>
+        <v>3593</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.39</v>
+        <v>3.28</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4162,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>149</v>
@@ -4174,7 +4749,7 @@
         <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="Q8" t="s">
         <v>150</v>
@@ -4186,19 +4761,19 @@
         <v>6</v>
       </c>
       <c r="T8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U8" t="s">
         <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X8" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s">
         <v>153</v>
@@ -4210,42 +4785,45 @@
         <v>49</v>
       </c>
       <c r="AB8" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="AC8" t="s">
         <v>155</v>
       </c>
-      <c r="AD8" t="s">
-        <v>289</v>
+      <c r="AE8" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="G9">
-        <v>2811</v>
+        <v>1686</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.48</v>
+        <v>3.15</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4254,10 +4832,10 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N9" t="s">
         <v>37</v>
@@ -4266,7 +4844,7 @@
         <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="Q9" t="s">
         <v>150</v>
@@ -4302,42 +4880,45 @@
         <v>49</v>
       </c>
       <c r="AB9" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AC9" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>200</v>
+        <v>155</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
         <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G10">
-        <v>29843</v>
+        <v>5987</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.51</v>
+        <v>2.87</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4346,10 +4927,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N10" t="s">
         <v>37</v>
@@ -4358,7 +4939,7 @@
         <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
         <v>150</v>
@@ -4370,16 +4951,16 @@
         <v>6</v>
       </c>
       <c r="T10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U10" t="s">
         <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X10" t="s">
         <v>143</v>
@@ -4391,7 +4972,7 @@
         <v>48</v>
       </c>
       <c r="AA10" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="AB10" t="s">
         <v>202</v>
@@ -4399,11 +4980,14 @@
       <c r="AC10" t="s">
         <v>155</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>290</v>
       </c>
+      <c r="AF10" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -4411,25 +4995,25 @@
         <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="G11">
-        <v>59007</v>
+        <v>3614</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.53</v>
+        <v>2.73</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4438,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
         <v>149</v>
@@ -4450,7 +5034,7 @@
         <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q11" t="s">
         <v>150</v>
@@ -4462,19 +5046,19 @@
         <v>6</v>
       </c>
       <c r="T11" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="U11" t="s">
         <v>43</v>
       </c>
       <c r="V11" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="W11" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y11" t="s">
         <v>153</v>
@@ -4483,45 +5067,48 @@
         <v>48</v>
       </c>
       <c r="AA11" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AB11" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="AC11" t="s">
         <v>155</v>
       </c>
-      <c r="AD11" t="s">
-        <v>290</v>
+      <c r="AE11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G12">
-        <v>33586</v>
+        <v>7885</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.54</v>
+        <v>2.73</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4530,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
         <v>149</v>
@@ -4542,7 +5129,7 @@
         <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q12" t="s">
         <v>150</v>
@@ -4566,7 +5153,7 @@
         <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y12" t="s">
         <v>153</v>
@@ -4575,19 +5162,22 @@
         <v>48</v>
       </c>
       <c r="AA12" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AC12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>200</v>
+        <v>155</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -4595,25 +5185,25 @@
         <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G13">
-        <v>15871</v>
+        <v>3128</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.67</v>
+        <v>2.71</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -4634,7 +5224,7 @@
         <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q13" t="s">
         <v>150</v>
@@ -4646,19 +5236,19 @@
         <v>6</v>
       </c>
       <c r="T13" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="U13" t="s">
         <v>43</v>
       </c>
       <c r="V13" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="W13" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="s">
         <v>153</v>
@@ -4675,22 +5265,25 @@
       <c r="AC13" t="s">
         <v>166</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>200</v>
       </c>
+      <c r="AF13" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -4699,13 +5292,13 @@
         <v>148</v>
       </c>
       <c r="G14">
-        <v>6469</v>
+        <v>1538</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.4500000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -4714,10 +5307,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N14" t="s">
         <v>37</v>
@@ -4726,7 +5319,7 @@
         <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
         <v>150</v>
@@ -4750,7 +5343,7 @@
         <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
         <v>153</v>
@@ -4759,19 +5352,22 @@
         <v>48</v>
       </c>
       <c r="AA14" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AB14" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="AC14" t="s">
         <v>155</v>
       </c>
-      <c r="AD14" t="s">
-        <v>289</v>
+      <c r="AE14" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -4779,25 +5375,25 @@
         <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="G15">
-        <v>7349</v>
+        <v>2240</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4830,16 +5426,16 @@
         <v>6</v>
       </c>
       <c r="T15" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="U15" t="s">
         <v>43</v>
       </c>
       <c r="V15" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="W15" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
         <v>55</v>
@@ -4851,19 +5447,22 @@
         <v>48</v>
       </c>
       <c r="AA15" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AB15" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="AC15" t="s">
         <v>155</v>
       </c>
-      <c r="AD15" t="s">
-        <v>290</v>
+      <c r="AE15" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -4871,25 +5470,25 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G16">
-        <v>13493</v>
+        <v>409</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4922,16 +5521,16 @@
         <v>6</v>
       </c>
       <c r="T16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U16" t="s">
         <v>43</v>
       </c>
       <c r="V16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X16" t="s">
         <v>55</v>
@@ -4943,7 +5542,7 @@
         <v>48</v>
       </c>
       <c r="AA16" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AB16" t="s">
         <v>202</v>
@@ -4951,37 +5550,40 @@
       <c r="AC16" t="s">
         <v>155</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>290</v>
       </c>
+      <c r="AF16" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
         <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="G17">
-        <v>1390</v>
+        <v>10691</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4990,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M17" t="s">
         <v>149</v>
@@ -5014,16 +5616,16 @@
         <v>6</v>
       </c>
       <c r="T17" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="U17" t="s">
         <v>43</v>
       </c>
       <c r="V17" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="X17" t="s">
         <v>55</v>
@@ -5038,16 +5640,19 @@
         <v>49</v>
       </c>
       <c r="AB17" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AC17" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>200</v>
+        <v>155</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -5055,25 +5660,25 @@
         <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="G18">
-        <v>55219</v>
+        <v>5982</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.48</v>
+        <v>2.66</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -5094,7 +5699,7 @@
         <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q18" t="s">
         <v>150</v>
@@ -5106,19 +5711,19 @@
         <v>6</v>
       </c>
       <c r="T18" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U18" t="s">
         <v>43</v>
       </c>
       <c r="V18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X18" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y18" t="s">
         <v>153</v>
@@ -5135,37 +5740,40 @@
       <c r="AC18" t="s">
         <v>155</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>290</v>
       </c>
+      <c r="AF18" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G19">
-        <v>5987</v>
+        <v>1390</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -5174,10 +5782,10 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M19" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N19" t="s">
         <v>37</v>
@@ -5186,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="Q19" t="s">
         <v>150</v>
@@ -5198,19 +5806,19 @@
         <v>6</v>
       </c>
       <c r="T19" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U19" t="s">
         <v>43</v>
       </c>
       <c r="V19" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="W19" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X19" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y19" t="s">
         <v>153</v>
@@ -5219,19 +5827,22 @@
         <v>48</v>
       </c>
       <c r="AA19" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="AB19" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="AC19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>290</v>
+        <v>166</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -5239,10 +5850,10 @@
         <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -5251,13 +5862,13 @@
         <v>208</v>
       </c>
       <c r="G20">
-        <v>1421</v>
+        <v>4084</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5266,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
         <v>149</v>
@@ -5278,7 +5889,7 @@
         <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q20" t="s">
         <v>150</v>
@@ -5302,7 +5913,7 @@
         <v>174</v>
       </c>
       <c r="X20" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y20" t="s">
         <v>153</v>
@@ -5319,11 +5930,14 @@
       <c r="AC20" t="s">
         <v>155</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>290</v>
       </c>
+      <c r="AF20" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -5331,25 +5945,25 @@
         <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="G21">
-        <v>7225</v>
+        <v>1833</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.4500000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5358,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
         <v>149</v>
@@ -5382,16 +5996,16 @@
         <v>6</v>
       </c>
       <c r="T21" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U21" t="s">
         <v>43</v>
       </c>
       <c r="V21" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="W21" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X21" t="s">
         <v>55</v>
@@ -5411,11 +6025,14 @@
       <c r="AC21" t="s">
         <v>155</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>290</v>
       </c>
+      <c r="AF21" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -5423,25 +6040,25 @@
         <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G22">
-        <v>3128</v>
+        <v>2565</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.71</v>
+        <v>2.59</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -5474,16 +6091,16 @@
         <v>6</v>
       </c>
       <c r="T22" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U22" t="s">
         <v>43</v>
       </c>
       <c r="V22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X22" t="s">
         <v>55</v>
@@ -5503,11 +6120,14 @@
       <c r="AC22" t="s">
         <v>166</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>200</v>
       </c>
+      <c r="AF22" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -5515,25 +6135,25 @@
         <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="G23">
-        <v>4756</v>
+        <v>13493</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.55</v>
+        <v>2.58</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -5542,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M23" t="s">
         <v>149</v>
@@ -5554,7 +6174,7 @@
         <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q23" t="s">
         <v>150</v>
@@ -5566,19 +6186,19 @@
         <v>6</v>
       </c>
       <c r="T23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U23" t="s">
         <v>43</v>
       </c>
       <c r="V23" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W23" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X23" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y23" t="s">
         <v>153</v>
@@ -5587,19 +6207,22 @@
         <v>48</v>
       </c>
       <c r="AA23" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AB23" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="AC23" t="s">
         <v>155</v>
       </c>
-      <c r="AD23" t="s">
-        <v>289</v>
+      <c r="AE23" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -5607,25 +6230,25 @@
         <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="G24">
-        <v>5235</v>
+        <v>821</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.39</v>
+        <v>2.58</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -5646,7 +6269,7 @@
         <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q24" t="s">
         <v>150</v>
@@ -5658,19 +6281,19 @@
         <v>6</v>
       </c>
       <c r="T24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U24" t="s">
         <v>43</v>
       </c>
       <c r="V24" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W24" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X24" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y24" t="s">
         <v>153</v>
@@ -5682,42 +6305,45 @@
         <v>49</v>
       </c>
       <c r="AB24" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="AC24" t="s">
         <v>155</v>
       </c>
-      <c r="AD24" t="s">
-        <v>289</v>
+      <c r="AE24" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s">
         <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="G25">
-        <v>5311</v>
+        <v>3533</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.71</v>
+        <v>2.57</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5729,7 +6355,7 @@
         <v>35</v>
       </c>
       <c r="M25" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
@@ -5738,7 +6364,7 @@
         <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="Q25" t="s">
         <v>150</v>
@@ -5750,19 +6376,19 @@
         <v>6</v>
       </c>
       <c r="T25" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="U25" t="s">
         <v>43</v>
       </c>
       <c r="V25" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="W25" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="X25" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="Y25" t="s">
         <v>153</v>
@@ -5771,7 +6397,7 @@
         <v>48</v>
       </c>
       <c r="AA25" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="AB25" t="s">
         <v>202</v>
@@ -5779,37 +6405,40 @@
       <c r="AC25" t="s">
         <v>155</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>290</v>
       </c>
+      <c r="AF25" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
         <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="G26">
-        <v>1127</v>
+        <v>3328</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -5818,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N26" t="s">
         <v>37</v>
@@ -5830,7 +6459,7 @@
         <v>38</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="Q26" t="s">
         <v>150</v>
@@ -5842,19 +6471,19 @@
         <v>6</v>
       </c>
       <c r="T26" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="U26" t="s">
         <v>43</v>
       </c>
       <c r="V26" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="W26" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="X26" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y26" t="s">
         <v>153</v>
@@ -5871,37 +6500,40 @@
       <c r="AC26" t="s">
         <v>155</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>290</v>
       </c>
+      <c r="AF26" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G27">
-        <v>2565</v>
+        <v>2890</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5910,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M27" t="s">
         <v>149</v>
@@ -5958,42 +6590,45 @@
         <v>49</v>
       </c>
       <c r="AB27" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="AC27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>200</v>
+        <v>155</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
         <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G28">
-        <v>2771</v>
+        <v>1760</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1.51</v>
+        <v>2.54</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -6002,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
         <v>149</v>
@@ -6014,7 +6649,7 @@
         <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q28" t="s">
         <v>150</v>
@@ -6026,19 +6661,19 @@
         <v>6</v>
       </c>
       <c r="T28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U28" t="s">
         <v>43</v>
       </c>
       <c r="V28" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W28" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X28" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y28" t="s">
         <v>153</v>
@@ -6050,16 +6685,19 @@
         <v>49</v>
       </c>
       <c r="AB28" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s">
         <v>155</v>
       </c>
-      <c r="AD28" t="s">
-        <v>290</v>
+      <c r="AE28" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
         <v>144</v>
       </c>
@@ -6067,10 +6705,10 @@
         <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -6079,22 +6717,22 @@
         <v>148</v>
       </c>
       <c r="G29">
-        <v>1745</v>
+        <v>2000</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.5544</v>
+        <v>2.54</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2280</v>
+        <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
         <v>149</v>
@@ -6106,7 +6744,7 @@
         <v>38</v>
       </c>
       <c r="P29" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q29" t="s">
         <v>150</v>
@@ -6130,7 +6768,7 @@
         <v>152</v>
       </c>
       <c r="X29" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y29" t="s">
         <v>153</v>
@@ -6147,11 +6785,14 @@
       <c r="AC29" t="s">
         <v>155</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>290</v>
       </c>
+      <c r="AF29" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -6159,25 +6800,25 @@
         <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G30">
-        <v>1228</v>
+        <v>1888</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1.42</v>
+        <v>2.54</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -6198,7 +6839,7 @@
         <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q30" t="s">
         <v>150</v>
@@ -6210,19 +6851,19 @@
         <v>6</v>
       </c>
       <c r="T30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U30" t="s">
         <v>43</v>
       </c>
       <c r="V30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X30" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y30" t="s">
         <v>153</v>
@@ -6239,11 +6880,14 @@
       <c r="AC30" t="s">
         <v>155</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>290</v>
       </c>
+      <c r="AF30" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -6251,25 +6895,25 @@
         <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="G31">
-        <v>2623</v>
+        <v>7349</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -6290,7 +6934,7 @@
         <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q31" t="s">
         <v>150</v>
@@ -6302,19 +6946,19 @@
         <v>6</v>
       </c>
       <c r="T31" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U31" t="s">
         <v>43</v>
       </c>
       <c r="V31" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="W31" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X31" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y31" t="s">
         <v>153</v>
@@ -6323,7 +6967,7 @@
         <v>48</v>
       </c>
       <c r="AA31" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AB31" t="s">
         <v>202</v>
@@ -6331,11 +6975,14 @@
       <c r="AC31" t="s">
         <v>155</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>290</v>
       </c>
+      <c r="AF31" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -6343,25 +6990,25 @@
         <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="G32">
-        <v>4000</v>
+        <v>1127</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1.48</v>
+        <v>2.52</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -6370,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M32" t="s">
         <v>149</v>
@@ -6382,7 +7029,7 @@
         <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q32" t="s">
         <v>150</v>
@@ -6394,19 +7041,19 @@
         <v>6</v>
       </c>
       <c r="T32" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U32" t="s">
         <v>43</v>
       </c>
       <c r="V32" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="W32" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X32" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y32" t="s">
         <v>153</v>
@@ -6423,11 +7070,14 @@
       <c r="AC32" t="s">
         <v>155</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>290</v>
       </c>
+      <c r="AF32" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -6435,10 +7085,10 @@
         <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
@@ -6447,13 +7097,13 @@
         <v>148</v>
       </c>
       <c r="G33">
-        <v>3523</v>
+        <v>6469</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1.48</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -6462,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M33" t="s">
         <v>149</v>
@@ -6474,7 +7124,7 @@
         <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q33" t="s">
         <v>150</v>
@@ -6498,7 +7148,7 @@
         <v>152</v>
       </c>
       <c r="X33" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y33" t="s">
         <v>153</v>
@@ -6515,11 +7165,14 @@
       <c r="AC33" t="s">
         <v>155</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>289</v>
       </c>
+      <c r="AF33" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -6527,10 +7180,10 @@
         <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
@@ -6539,13 +7192,13 @@
         <v>148</v>
       </c>
       <c r="G34">
-        <v>7739</v>
+        <v>971</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1.55</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -6554,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M34" t="s">
         <v>149</v>
@@ -6566,7 +7219,7 @@
         <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q34" t="s">
         <v>150</v>
@@ -6590,7 +7243,7 @@
         <v>152</v>
       </c>
       <c r="X34" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y34" t="s">
         <v>153</v>
@@ -6599,19 +7252,22 @@
         <v>48</v>
       </c>
       <c r="AA34" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AB34" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="AC34" t="s">
         <v>155</v>
       </c>
-      <c r="AD34" t="s">
-        <v>290</v>
+      <c r="AE34" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -6619,25 +7275,25 @@
         <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="G35">
-        <v>4864</v>
+        <v>7225</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1.62</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -6646,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M35" t="s">
         <v>149</v>
@@ -6658,7 +7314,7 @@
         <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="Q35" t="s">
         <v>150</v>
@@ -6670,19 +7326,19 @@
         <v>6</v>
       </c>
       <c r="T35" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="U35" t="s">
         <v>43</v>
       </c>
       <c r="V35" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="W35" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="X35" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y35" t="s">
         <v>153</v>
@@ -6699,37 +7355,40 @@
       <c r="AC35" t="s">
         <v>155</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>290</v>
       </c>
+      <c r="AF35" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
         <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="G36">
-        <v>854</v>
+        <v>1072</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>4.46</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -6738,10 +7397,10 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M36" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N36" t="s">
         <v>37</v>
@@ -6750,7 +7409,7 @@
         <v>38</v>
       </c>
       <c r="P36" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="Q36" t="s">
         <v>150</v>
@@ -6762,19 +7421,19 @@
         <v>6</v>
       </c>
       <c r="T36" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="U36" t="s">
         <v>43</v>
       </c>
       <c r="V36" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="W36" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="X36" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Y36" t="s">
         <v>153</v>
@@ -6783,7 +7442,7 @@
         <v>48</v>
       </c>
       <c r="AA36" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AB36" t="s">
         <v>202</v>
@@ -6791,37 +7450,40 @@
       <c r="AC36" t="s">
         <v>155</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>290</v>
       </c>
+      <c r="AF36" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
         <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G37">
-        <v>1072</v>
+        <v>15871</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2.4500000000000002</v>
+        <v>1.67</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -6842,7 +7504,7 @@
         <v>38</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q37" t="s">
         <v>150</v>
@@ -6854,19 +7516,19 @@
         <v>6</v>
       </c>
       <c r="T37" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U37" t="s">
         <v>43</v>
       </c>
       <c r="V37" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="W37" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X37" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y37" t="s">
         <v>153</v>
@@ -6878,16 +7540,22 @@
         <v>49</v>
       </c>
       <c r="AB37" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="AC37" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AD37" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -6895,25 +7563,25 @@
         <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E38" t="s">
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="G38">
-        <v>2890</v>
+        <v>8367</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>2.54</v>
+        <v>1.62</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -6934,7 +7602,7 @@
         <v>38</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q38" t="s">
         <v>150</v>
@@ -6946,19 +7614,19 @@
         <v>6</v>
       </c>
       <c r="T38" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U38" t="s">
         <v>43</v>
       </c>
       <c r="V38" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="W38" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X38" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y38" t="s">
         <v>153</v>
@@ -6970,16 +7638,22 @@
         <v>49</v>
       </c>
       <c r="AB38" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="AC38" t="s">
         <v>155</v>
       </c>
       <c r="AD38" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -6987,25 +7661,25 @@
         <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="G39">
-        <v>2000</v>
+        <v>4864</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>2.54</v>
+        <v>1.62</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -7026,7 +7700,7 @@
         <v>38</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q39" t="s">
         <v>150</v>
@@ -7038,19 +7712,19 @@
         <v>6</v>
       </c>
       <c r="T39" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U39" t="s">
         <v>43</v>
       </c>
       <c r="V39" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="W39" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X39" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y39" t="s">
         <v>153</v>
@@ -7067,11 +7741,14 @@
       <c r="AC39" t="s">
         <v>155</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>290</v>
       </c>
+      <c r="AF39" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -7079,10 +7756,10 @@
         <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="D40" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
@@ -7091,13 +7768,13 @@
         <v>148</v>
       </c>
       <c r="G40">
-        <v>1888</v>
+        <v>4756</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -7118,7 +7795,7 @@
         <v>38</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q40" t="s">
         <v>150</v>
@@ -7142,7 +7819,7 @@
         <v>152</v>
       </c>
       <c r="X40" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y40" t="s">
         <v>153</v>
@@ -7151,19 +7828,22 @@
         <v>48</v>
       </c>
       <c r="AA40" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AB40" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="AC40" t="s">
         <v>155</v>
       </c>
-      <c r="AD40" t="s">
-        <v>290</v>
+      <c r="AE40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -7171,10 +7851,10 @@
         <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
         <v>33</v>
@@ -7183,13 +7863,13 @@
         <v>148</v>
       </c>
       <c r="G41">
-        <v>1760</v>
+        <v>7739</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -7210,7 +7890,7 @@
         <v>38</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q41" t="s">
         <v>150</v>
@@ -7234,7 +7914,7 @@
         <v>152</v>
       </c>
       <c r="X41" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y41" t="s">
         <v>153</v>
@@ -7243,45 +7923,48 @@
         <v>48</v>
       </c>
       <c r="AA41" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AB41" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="AC41" t="s">
         <v>155</v>
       </c>
-      <c r="AD41" t="s">
-        <v>289</v>
+      <c r="AE41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G42">
-        <v>3533</v>
+        <v>33586</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>2.57</v>
+        <v>1.54</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -7290,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M42" t="s">
         <v>149</v>
@@ -7302,7 +7985,7 @@
         <v>38</v>
       </c>
       <c r="P42" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="Q42" t="s">
         <v>150</v>
@@ -7326,7 +8009,7 @@
         <v>152</v>
       </c>
       <c r="X42" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="Y42" t="s">
         <v>153</v>
@@ -7338,42 +8021,45 @@
         <v>49</v>
       </c>
       <c r="AB42" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="AC42" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>290</v>
+        <v>166</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
         <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="G43">
-        <v>3328</v>
+        <v>59007</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -7382,10 +8068,10 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M43" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N43" t="s">
         <v>37</v>
@@ -7394,7 +8080,7 @@
         <v>38</v>
       </c>
       <c r="P43" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="Q43" t="s">
         <v>150</v>
@@ -7406,16 +8092,16 @@
         <v>6</v>
       </c>
       <c r="T43" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U43" t="s">
         <v>43</v>
       </c>
       <c r="V43" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="W43" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X43" t="s">
         <v>143</v>
@@ -7435,11 +8121,14 @@
       <c r="AC43" t="s">
         <v>155</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>290</v>
       </c>
+      <c r="AF43" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -7447,10 +8136,10 @@
         <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="D44" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s">
         <v>33</v>
@@ -7459,13 +8148,13 @@
         <v>208</v>
       </c>
       <c r="G44">
-        <v>1833</v>
+        <v>1421</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>2.6</v>
+        <v>1.53</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -7474,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M44" t="s">
         <v>149</v>
@@ -7486,7 +8175,7 @@
         <v>38</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q44" t="s">
         <v>150</v>
@@ -7510,7 +8199,7 @@
         <v>174</v>
       </c>
       <c r="X44" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y44" t="s">
         <v>153</v>
@@ -7527,11 +8216,14 @@
       <c r="AC44" t="s">
         <v>155</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>290</v>
       </c>
+      <c r="AF44" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -7539,10 +8231,10 @@
         <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
         <v>33</v>
@@ -7551,13 +8243,13 @@
         <v>205</v>
       </c>
       <c r="G45">
-        <v>5982</v>
+        <v>29843</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>2.66</v>
+        <v>1.51</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -7566,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M45" t="s">
         <v>149</v>
@@ -7578,7 +8270,7 @@
         <v>38</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q45" t="s">
         <v>150</v>
@@ -7602,7 +8294,7 @@
         <v>158</v>
       </c>
       <c r="X45" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y45" t="s">
         <v>153</v>
@@ -7619,37 +8311,40 @@
       <c r="AC45" t="s">
         <v>155</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" t="s">
         <v>290</v>
       </c>
+      <c r="AF45" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
         <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
         <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="G46">
-        <v>2240</v>
+        <v>2771</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>2.68</v>
+        <v>1.51</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -7670,7 +8365,7 @@
         <v>38</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q46" t="s">
         <v>150</v>
@@ -7682,19 +8377,19 @@
         <v>6</v>
       </c>
       <c r="T46" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U46" t="s">
         <v>43</v>
       </c>
       <c r="V46" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W46" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X46" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y46" t="s">
         <v>153</v>
@@ -7703,45 +8398,48 @@
         <v>48</v>
       </c>
       <c r="AA46" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AB46" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="AC46" t="s">
         <v>155</v>
       </c>
-      <c r="AD46" t="s">
-        <v>289</v>
+      <c r="AE46" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
         <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G47">
-        <v>1538</v>
+        <v>2811</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>2.7</v>
+        <v>1.48</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -7750,10 +8448,10 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M47" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N47" t="s">
         <v>37</v>
@@ -7762,7 +8460,7 @@
         <v>38</v>
       </c>
       <c r="P47" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="Q47" t="s">
         <v>150</v>
@@ -7774,16 +8472,16 @@
         <v>6</v>
       </c>
       <c r="T47" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="U47" t="s">
         <v>43</v>
       </c>
       <c r="V47" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W47" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X47" t="s">
         <v>143</v>
@@ -7795,19 +8493,22 @@
         <v>48</v>
       </c>
       <c r="AA47" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AB47" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="AC47" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>290</v>
+        <v>166</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -7815,10 +8516,10 @@
         <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
         <v>33</v>
@@ -7827,13 +8528,13 @@
         <v>148</v>
       </c>
       <c r="G48">
-        <v>7885</v>
+        <v>18724</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>2.73</v>
+        <v>1.48</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -7854,7 +8555,7 @@
         <v>38</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q48" t="s">
         <v>150</v>
@@ -7878,7 +8579,7 @@
         <v>152</v>
       </c>
       <c r="X48" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y48" t="s">
         <v>153</v>
@@ -7887,19 +8588,22 @@
         <v>48</v>
       </c>
       <c r="AA48" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AB48" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s">
         <v>155</v>
       </c>
-      <c r="AD48" t="s">
-        <v>290</v>
+      <c r="AE48" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -7907,10 +8611,10 @@
         <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
         <v>33</v>
@@ -7919,13 +8623,13 @@
         <v>148</v>
       </c>
       <c r="G49">
-        <v>3614</v>
+        <v>3523</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>2.73</v>
+        <v>1.48</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -7946,7 +8650,7 @@
         <v>38</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q49" t="s">
         <v>150</v>
@@ -7970,7 +8674,7 @@
         <v>152</v>
       </c>
       <c r="X49" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y49" t="s">
         <v>153</v>
@@ -7979,7 +8683,7 @@
         <v>48</v>
       </c>
       <c r="AA49" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AB49" t="s">
         <v>154</v>
@@ -7987,37 +8691,40 @@
       <c r="AC49" t="s">
         <v>155</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AE49" t="s">
         <v>289</v>
       </c>
+      <c r="AF49" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
         <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G50">
-        <v>1686</v>
+        <v>55219</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>3.15</v>
+        <v>1.48</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -8029,7 +8736,7 @@
         <v>35</v>
       </c>
       <c r="M50" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N50" t="s">
         <v>37</v>
@@ -8038,7 +8745,7 @@
         <v>38</v>
       </c>
       <c r="P50" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="Q50" t="s">
         <v>150</v>
@@ -8050,16 +8757,16 @@
         <v>6</v>
       </c>
       <c r="T50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U50" t="s">
         <v>43</v>
       </c>
       <c r="V50" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W50" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X50" t="s">
         <v>143</v>
@@ -8079,37 +8786,40 @@
       <c r="AC50" t="s">
         <v>155</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>290</v>
       </c>
+      <c r="AF50" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
         <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
         <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G51">
-        <v>3593</v>
+        <v>4000</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>3.28</v>
+        <v>1.48</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -8130,7 +8840,7 @@
         <v>38</v>
       </c>
       <c r="P51" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="Q51" t="s">
         <v>150</v>
@@ -8142,19 +8852,19 @@
         <v>6</v>
       </c>
       <c r="T51" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U51" t="s">
         <v>43</v>
       </c>
       <c r="V51" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W51" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X51" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="Y51" t="s">
         <v>153</v>
@@ -8171,37 +8881,40 @@
       <c r="AC51" t="s">
         <v>155</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AE51" t="s">
         <v>290</v>
       </c>
+      <c r="AF51" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
         <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
         <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G52">
-        <v>1692</v>
+        <v>2623</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>3.33</v>
+        <v>1.46</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -8210,10 +8923,10 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M52" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N52" t="s">
         <v>37</v>
@@ -8222,7 +8935,7 @@
         <v>38</v>
       </c>
       <c r="P52" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="Q52" t="s">
         <v>150</v>
@@ -8234,16 +8947,16 @@
         <v>6</v>
       </c>
       <c r="T52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U52" t="s">
         <v>43</v>
       </c>
       <c r="V52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X52" t="s">
         <v>143</v>
@@ -8263,22 +8976,25 @@
       <c r="AC52" t="s">
         <v>155</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AE52" t="s">
         <v>290</v>
       </c>
+      <c r="AF52" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
         <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="E53" t="s">
         <v>33</v>
@@ -8287,13 +9003,13 @@
         <v>205</v>
       </c>
       <c r="G53">
-        <v>3805</v>
+        <v>19259</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>3.5</v>
+        <v>1.42</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -8305,7 +9021,7 @@
         <v>35</v>
       </c>
       <c r="M53" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N53" t="s">
         <v>37</v>
@@ -8314,7 +9030,7 @@
         <v>38</v>
       </c>
       <c r="P53" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="Q53" t="s">
         <v>150</v>
@@ -8347,7 +9063,7 @@
         <v>48</v>
       </c>
       <c r="AA53" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="AB53" t="s">
         <v>202</v>
@@ -8355,37 +9071,40 @@
       <c r="AC53" t="s">
         <v>155</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AE53" t="s">
         <v>290</v>
       </c>
+      <c r="AF53" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
         <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="D54" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="E54" t="s">
         <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G54">
-        <v>5493</v>
+        <v>1228</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>4.2300000000000004</v>
+        <v>1.42</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -8406,7 +9125,7 @@
         <v>38</v>
       </c>
       <c r="P54" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="Q54" t="s">
         <v>150</v>
@@ -8418,19 +9137,19 @@
         <v>6</v>
       </c>
       <c r="T54" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="U54" t="s">
         <v>43</v>
       </c>
       <c r="V54" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="W54" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="X54" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="Y54" t="s">
         <v>153</v>
@@ -8447,37 +9166,40 @@
       <c r="AC54" t="s">
         <v>155</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AE54" t="s">
         <v>290</v>
       </c>
+      <c r="AF54" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
         <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="E55" t="s">
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="G55">
-        <v>3410</v>
+        <v>6356</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>4.2300000000000004</v>
+        <v>1.39</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -8486,10 +9208,10 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M55" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N55" t="s">
         <v>37</v>
@@ -8498,7 +9220,7 @@
         <v>38</v>
       </c>
       <c r="P55" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="Q55" t="s">
         <v>150</v>
@@ -8510,16 +9232,16 @@
         <v>6</v>
       </c>
       <c r="T55" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="U55" t="s">
         <v>43</v>
       </c>
       <c r="V55" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="W55" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="X55" t="s">
         <v>143</v>
@@ -8534,16 +9256,19 @@
         <v>49</v>
       </c>
       <c r="AB55" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="AC55" t="s">
         <v>155</v>
       </c>
-      <c r="AD55" t="s">
-        <v>290</v>
+      <c r="AE55" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
         <v>144</v>
       </c>
@@ -8551,10 +9276,10 @@
         <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
         <v>33</v>
@@ -8563,13 +9288,13 @@
         <v>148</v>
       </c>
       <c r="G56">
-        <v>971</v>
+        <v>5235</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2.4500000000000002</v>
+        <v>1.39</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -8590,7 +9315,7 @@
         <v>38</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q56" t="s">
         <v>150</v>
@@ -8614,7 +9339,7 @@
         <v>152</v>
       </c>
       <c r="X56" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y56" t="s">
         <v>153</v>
@@ -8631,11 +9356,14 @@
       <c r="AC56" t="s">
         <v>155</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AE56" t="s">
         <v>289</v>
       </c>
+      <c r="AF56" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
         <v>144</v>
       </c>
@@ -8643,25 +9371,25 @@
         <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
         <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G57">
-        <v>821</v>
+        <v>11749</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>2.58</v>
+        <v>1.39</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -8682,7 +9410,7 @@
         <v>38</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q57" t="s">
         <v>150</v>
@@ -8694,19 +9422,19 @@
         <v>6</v>
       </c>
       <c r="T57" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U57" t="s">
         <v>43</v>
       </c>
       <c r="V57" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W57" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X57" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y57" t="s">
         <v>153</v>
@@ -8723,11 +9451,14 @@
       <c r="AC57" t="s">
         <v>155</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AE57" t="s">
         <v>290</v>
       </c>
+      <c r="AF57" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -8735,10 +9466,10 @@
         <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="D58" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="E58" t="s">
         <v>33</v>
@@ -8747,19 +9478,19 @@
         <v>148</v>
       </c>
       <c r="G58">
-        <v>409</v>
+        <v>1745</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>2.68</v>
+        <v>0.5544</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>2280</v>
       </c>
       <c r="L58" t="s">
         <v>128</v>
@@ -8774,7 +9505,7 @@
         <v>38</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q58" t="s">
         <v>150</v>
@@ -8798,7 +9529,7 @@
         <v>152</v>
       </c>
       <c r="X58" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="Y58" t="s">
         <v>153</v>
@@ -8807,7 +9538,7 @@
         <v>48</v>
       </c>
       <c r="AA58" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="AB58" t="s">
         <v>202</v>
@@ -8815,11 +9546,23 @@
       <c r="AC58" t="s">
         <v>155</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AE58" t="s">
         <v>290</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Digikey/Processors.xlsx
+++ b/Digikey/Processors.xlsx
@@ -2056,7 +2056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2066,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
@@ -2603,7 +2603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2:AE6"/>
     </sheetView>
   </sheetViews>
@@ -3178,7 +3178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
@@ -3999,7 +3999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
